--- a/Documentation/TestPlan.xlsx
+++ b/Documentation/TestPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/459322_student_fontys_nl/Documents/Github/Hardware_Simulator/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{A9B0DC6E-C05B-4065-AB38-DBD24667DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E0BF92-E525-48A5-A272-8D2EAA18B3CD}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{A9B0DC6E-C05B-4065-AB38-DBD24667DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BFCFFF-8A03-4CFC-A9B7-45770A8B5647}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C9B69B84-2E13-4788-BBCE-DFBAA26DE020}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Check</t>
   </si>
@@ -179,7 +180,49 @@
     <t>20V +- 10%</t>
   </si>
   <si>
-    <t>The battery pack emulator has a peak power of *W (see 10.1)</t>
+    <t>The 4 cell battery pack emulator has a peak power of 240W (see 10.1)</t>
+  </si>
+  <si>
+    <t>60W +- 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach Siglent SPD3303X-E power supply to input. Attach load to output and set output voltage of cell to maximum. Measure peak output voltage and current values with oscilloscope over time to calculate power. </t>
+  </si>
+  <si>
+    <t>13.44kW +- 10%</t>
+  </si>
+  <si>
+    <t>240W +- 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing blows up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase the input current above the maximum value </t>
+  </si>
+  <si>
+    <t>Output voltage responds to changes in the user interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output voltage responds to changes in the digital potentiometer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the user device and attach it to the PCB. Test for specific voltages, voltages on the boundaries, and if the voltages change in real time. Measure the output with a multimeter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the user device and attach it to the PCB. Vary the resistance of the potentiometer to achieve specific voltages and measure the output voltage of the PCB using a multimeter.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the device and decide on reference temperatures. Set the digital potentiometer to the desired emulated temperature and measure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the device. Set the digital potentiometer to emulate the desired temperature boundaries and measure. </t>
+  </si>
+  <si>
+    <t>The emulated temperature matches the temperature from the potentiometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emulated temperature range matches the desired range for the device </t>
   </si>
 </sst>
 </file>
@@ -203,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -211,28 +254,392 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,24 +654,28 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}" name="Table1" displayName="Table1" ref="A1:K24">
-  <autoFilter ref="A1:K24" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
-    <sortCondition ref="A1:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}" name="Table1" displayName="Table1" ref="A1:K21" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="A1:K21" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
+    <sortCondition ref="A1:A21"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{A3FD80B9-3704-4DDD-93E1-356A7323D270}" name="ID"/>
-    <tableColumn id="1" xr3:uid="{4BA4F32F-7338-4412-AC80-E83E87A680C9}" name="Requirement" totalsRowLabel="Total" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{01FB06B0-885A-47A2-917B-E9D39BD9B871}" name="Test method" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D751F657-CB72-43EB-8FDE-9C24EF420DD9}" name="Expected outcome"/>
-    <tableColumn id="4" xr3:uid="{C7D933BD-B8D2-44CC-A21F-7FD843E97A10}" name="Measured outcome"/>
-    <tableColumn id="5" xr3:uid="{9805307B-3075-4F65-BAB8-FB14BA919C8B}" name="Check"/>
-    <tableColumn id="6" xr3:uid="{AFA2DF87-A8CA-4D62-AC03-F4279D6F157F}" name="Date"/>
-    <tableColumn id="7" xr3:uid="{6AB2F984-98BC-4680-BFAA-FC193D77D8F5}" name="Check2"/>
-    <tableColumn id="8" xr3:uid="{940936CD-EC90-450A-9370-49783905A6F3}" name="Date2"/>
-    <tableColumn id="9" xr3:uid="{79F27A07-68DD-4752-A6F2-1EE816684F47}" name="Check3"/>
-    <tableColumn id="10" xr3:uid="{A0636498-04D7-4546-8B5B-AE25D357DA58}" name="Date3" totalsRowFunction="count"/>
+    <tableColumn id="11" xr3:uid="{A3FD80B9-3704-4DDD-93E1-356A7323D270}" name="ID" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4BA4F32F-7338-4412-AC80-E83E87A680C9}" name="Requirement" totalsRowLabel="Total" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{01FB06B0-885A-47A2-917B-E9D39BD9B871}" name="Test method" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D751F657-CB72-43EB-8FDE-9C24EF420DD9}" name="Expected outcome" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{C7D933BD-B8D2-44CC-A21F-7FD843E97A10}" name="Measured outcome" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{9805307B-3075-4F65-BAB8-FB14BA919C8B}" name="Check" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{AFA2DF87-A8CA-4D62-AC03-F4279D6F157F}" name="Date" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6AB2F984-98BC-4680-BFAA-FC193D77D8F5}" name="Check2" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{940936CD-EC90-450A-9370-49783905A6F3}" name="Date2" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{79F27A07-68DD-4752-A6F2-1EE816684F47}" name="Check3" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{A0636498-04D7-4546-8B5B-AE25D357DA58}" name="Date3" totalsRowFunction="count" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555679DB-D521-465B-BFBC-20DCFFD39367}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,42 +1000,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -633,12 +1044,19 @@
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>1.1100000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -647,30 +1065,61 @@
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>1.2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>1.21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>1.3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -679,12 +1128,19 @@
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>5.0999999999999996</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -693,12 +1149,19 @@
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>5.2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -707,12 +1170,19 @@
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>5.3</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -721,12 +1191,19 @@
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>5.4</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -735,12 +1212,19 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>5.5</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -749,21 +1233,40 @@
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>5.6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>5.7</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -772,57 +1275,120 @@
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>6.2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>6.3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>7.1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>7.2</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>7.3</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>10.1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -831,12 +1397,19 @@
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>10.199999999999999</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -845,31 +1418,37 @@
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>10.3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/TestPlan.xlsx
+++ b/Documentation/TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/459322_student_fontys_nl/Documents/Github/Hardware_Simulator/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{A9B0DC6E-C05B-4065-AB38-DBD24667DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BFCFFF-8A03-4CFC-A9B7-45770A8B5647}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{A9B0DC6E-C05B-4065-AB38-DBD24667DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBEC0EB5-A516-4723-A597-4EAE0EECA7EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C9B69B84-2E13-4788-BBCE-DFBAA26DE020}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Check</t>
   </si>
@@ -93,9 +92,6 @@
     <t>The emulated temperature range is -40 to 80 C</t>
   </si>
   <si>
-    <t>The emulated battery pack has an output which indicates the temperature relative to the output voltage</t>
-  </si>
-  <si>
     <t>The temperature of the electronics should be less than 25 C</t>
   </si>
   <si>
@@ -223,6 +219,15 @@
   </si>
   <si>
     <t xml:space="preserve">The emulated temperature range matches the desired range for the device </t>
+  </si>
+  <si>
+    <t>The emulated battery pack has a temperature output that is relative to the output voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The emulated temperature output corresponds to the output voltage</t>
   </si>
 </sst>
 </file>
@@ -369,12 +374,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -408,6 +410,186 @@
   <dxfs count="16">
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -423,6 +605,32 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -433,212 +641,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -659,23 +661,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}" name="Table1" displayName="Table1" ref="A1:K21" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}" name="Table1" displayName="Table1" ref="A1:K21" headerRowDxfId="15" dataDxfId="13" totalsRowDxfId="11" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A1:K21" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{A3FD80B9-3704-4DDD-93E1-356A7323D270}" name="ID" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{4BA4F32F-7338-4412-AC80-E83E87A680C9}" name="Requirement" totalsRowLabel="Total" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{01FB06B0-885A-47A2-917B-E9D39BD9B871}" name="Test method" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D751F657-CB72-43EB-8FDE-9C24EF420DD9}" name="Expected outcome" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C7D933BD-B8D2-44CC-A21F-7FD843E97A10}" name="Measured outcome" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{9805307B-3075-4F65-BAB8-FB14BA919C8B}" name="Check" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{AFA2DF87-A8CA-4D62-AC03-F4279D6F157F}" name="Date" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{6AB2F984-98BC-4680-BFAA-FC193D77D8F5}" name="Check2" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{940936CD-EC90-450A-9370-49783905A6F3}" name="Date2" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{79F27A07-68DD-4752-A6F2-1EE816684F47}" name="Check3" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{A0636498-04D7-4546-8B5B-AE25D357DA58}" name="Date3" totalsRowFunction="count" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{A3FD80B9-3704-4DDD-93E1-356A7323D270}" name="ID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4BA4F32F-7338-4412-AC80-E83E87A680C9}" name="Requirement" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{01FB06B0-885A-47A2-917B-E9D39BD9B871}" name="Test method" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D751F657-CB72-43EB-8FDE-9C24EF420DD9}" name="Expected outcome" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C7D933BD-B8D2-44CC-A21F-7FD843E97A10}" name="Measured outcome" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9805307B-3075-4F65-BAB8-FB14BA919C8B}" name="Check" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{AFA2DF87-A8CA-4D62-AC03-F4279D6F157F}" name="Date" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{6AB2F984-98BC-4680-BFAA-FC193D77D8F5}" name="Check2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{940936CD-EC90-450A-9370-49783905A6F3}" name="Date2" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{79F27A07-68DD-4752-A6F2-1EE816684F47}" name="Check3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A0636498-04D7-4546-8B5B-AE25D357DA58}" name="Date3" totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555679DB-D521-465B-BFBC-20DCFFD39367}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1000,52 +1002,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1053,20 +1055,20 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1.1100000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1074,20 +1076,20 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1095,20 +1097,20 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1.21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1116,20 +1118,20 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1.3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1137,20 +1139,20 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1158,20 +1160,20 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>5.2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1179,20 +1181,20 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>5.3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1200,20 +1202,20 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>5.4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1221,20 +1223,20 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5.5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1242,20 +1244,20 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>5.6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1263,20 +1265,20 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>5.7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1284,20 +1286,20 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>6.2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1305,20 +1307,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>6.3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1326,20 +1328,20 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>7.1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1347,20 +1349,20 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>7.2</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1368,37 +1370,41 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>7.3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>10.1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1406,20 +1412,20 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>10.199999999999999</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1427,28 +1433,28 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>10.3</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="10"/>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
